--- a/data/expt_2/raw_transcripts/game64.xlsx
+++ b/data/expt_2/raw_transcripts/game64.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="287">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -976,7 +976,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -986,6 +986,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1249,9 +1253,9 @@
   <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F326" activeCellId="0" sqref="F326"/>
+      <selection pane="bottomLeft" activeCell="F122" activeCellId="0" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3070,6 +3074,9 @@
       <c r="D124" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F124" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="n">
@@ -3498,6 +3505,9 @@
       <c r="D149" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F149" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="n">
@@ -3631,6 +3641,9 @@
       <c r="D157" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F157" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="I157" s="3" t="s">
         <v>106</v>
       </c>
@@ -3950,6 +3963,9 @@
       <c r="D175" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F175" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="n">
@@ -4151,6 +4167,9 @@
       <c r="D187" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F187" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="n">
@@ -4165,6 +4184,9 @@
       <c r="D188" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F188" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="n">
@@ -4327,6 +4349,9 @@
       <c r="D197" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F197" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="n">
@@ -4341,6 +4366,9 @@
       <c r="D198" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F198" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="n">
@@ -4462,6 +4490,9 @@
       <c r="D204" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F204" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="n">
@@ -4504,6 +4535,9 @@
       <c r="D207" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F207" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="I207" s="3" t="s">
         <v>106</v>
       </c>
@@ -4921,6 +4955,9 @@
       <c r="D231" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F231" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="n">
@@ -4935,6 +4972,9 @@
       <c r="D232" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F232" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="n">
@@ -5301,7 +5341,7 @@
       <c r="B251" s="2" t="n">
         <v>647340</v>
       </c>
-      <c r="C251" s="4" t="s">
+      <c r="C251" s="5" t="s">
         <v>232</v>
       </c>
       <c r="D251" s="2" t="s">
@@ -5455,6 +5495,9 @@
       <c r="D259" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F259" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="2" t="n">
@@ -5469,6 +5512,9 @@
       <c r="D260" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F260" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="2" t="n">
@@ -5482,6 +5528,9 @@
       </c>
       <c r="D261" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="F261" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/expt_2/raw_transcripts/game64.xlsx
+++ b/data/expt_2/raw_transcripts/game64.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="287">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -976,7 +976,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -990,10 +990,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1253,9 +1249,9 @@
   <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F122" activeCellId="0" sqref="F122"/>
+      <selection pane="bottomLeft" activeCell="H254" activeCellId="0" sqref="H254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3074,7 +3070,7 @@
       <c r="D124" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" s="3" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3505,7 +3501,7 @@
       <c r="D149" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="F149" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3641,7 +3637,7 @@
       <c r="D157" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F157" s="4" t="s">
+      <c r="F157" s="3" t="s">
         <v>102</v>
       </c>
       <c r="I157" s="3" t="s">
@@ -3963,7 +3959,7 @@
       <c r="D175" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F175" s="4" t="s">
+      <c r="F175" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4167,7 +4163,7 @@
       <c r="D187" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F187" s="4" t="s">
+      <c r="F187" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4184,7 +4180,7 @@
       <c r="D188" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F188" s="4" t="s">
+      <c r="F188" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4349,7 +4345,7 @@
       <c r="D197" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F197" s="4" t="s">
+      <c r="F197" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4366,7 +4362,7 @@
       <c r="D198" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F198" s="4" t="s">
+      <c r="F198" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4490,7 +4486,7 @@
       <c r="D204" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F204" s="4" t="s">
+      <c r="F204" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4535,7 +4531,7 @@
       <c r="D207" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F207" s="4" t="s">
+      <c r="F207" s="3" t="s">
         <v>108</v>
       </c>
       <c r="I207" s="3" t="s">
@@ -4955,7 +4951,7 @@
       <c r="D231" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F231" s="4" t="s">
+      <c r="F231" s="3" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4972,7 +4968,7 @@
       <c r="D232" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F232" s="4" t="s">
+      <c r="F232" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5327,9 +5323,7 @@
       <c r="F250" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H250" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="H250" s="2"/>
       <c r="I250" s="3" t="s">
         <v>106</v>
       </c>
@@ -5341,7 +5335,7 @@
       <c r="B251" s="2" t="n">
         <v>647340</v>
       </c>
-      <c r="C251" s="5" t="s">
+      <c r="C251" s="4" t="s">
         <v>232</v>
       </c>
       <c r="D251" s="2" t="s">
@@ -5370,9 +5364,7 @@
       <c r="F252" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H252" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="H252" s="2"/>
       <c r="I252" s="3" t="s">
         <v>106</v>
       </c>
@@ -5413,9 +5405,7 @@
       <c r="F254" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H254" s="2" t="s">
-        <v>230</v>
-      </c>
+      <c r="H254" s="2"/>
       <c r="I254" s="3" t="s">
         <v>106</v>
       </c>
@@ -5495,7 +5485,7 @@
       <c r="D259" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F259" s="4" t="s">
+      <c r="F259" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5512,7 +5502,7 @@
       <c r="D260" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F260" s="4" t="s">
+      <c r="F260" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5529,7 +5519,7 @@
       <c r="D261" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F261" s="4" t="s">
+      <c r="F261" s="3" t="s">
         <v>108</v>
       </c>
     </row>

--- a/data/expt_2/raw_transcripts/game64.xlsx
+++ b/data/expt_2/raw_transcripts/game64.xlsx
@@ -1249,9 +1249,9 @@
   <dimension ref="A1:I325"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H254" activeCellId="0" sqref="H254"/>
+      <selection pane="bottomLeft" activeCell="E207" activeCellId="0" sqref="E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4346,7 +4346,7 @@
         <v>15</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4363,7 +4363,7 @@
         <v>15</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4532,7 +4532,7 @@
         <v>15</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I207" s="3" t="s">
         <v>106</v>
